--- a/public/template/BVI Manual Template.xlsx
+++ b/public/template/BVI Manual Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medalsoftinc-my.sharepoint.com/personal/yuanyuan_wang_medalsoft_com/Documents/02项目/71西门子/02 西门子中国/03 GBS B&amp;B new system/01.项目分析/模板和主数据/Import Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047p6c\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DA82427541F7ACA7EB8C8F84A136A6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00105CCD-2521-41CD-B97F-9566A9C75E90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516A0B9-2BDC-476F-B6D7-1F529A44178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26355" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,14 +86,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,13 +101,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -116,21 +116,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,17 +179,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +192,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -485,97 +482,97 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>5547</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>80920016</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>29580.35</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>202204</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>5547</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>80220013</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>753</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>202204</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -591,15 +588,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c50d01044c98fb8ecbd144f89ed44461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1e26bed6c9607303f71b5c6e0324231" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -764,14 +752,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC17CFAF-57A5-43B3-87B0-8FDEE8E782B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC17CFAF-57A5-43B3-87B0-8FDEE8E782B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A1CEEC-8F2A-4A2C-9DD4-8DFCDB3306E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEDB57E-C2B8-47C8-9FEC-C5A2242AFD9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEDB57E-C2B8-47C8-9FEC-C5A2242AFD9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A1CEEC-8F2A-4A2C-9DD4-8DFCDB3306E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>